--- a/result/compare/yolograph/result-etroit.xlsx
+++ b/result/compare/yolograph/result-etroit.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\yolograph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/yolograph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3593D114-F510-44C3-8145-50C6EE817619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BFDDC-5502-7048-9771-2E1B15947DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3393,15 +3396,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>698499</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>627943</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>396168</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3416,8 +3419,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8315324" y="3140075"/>
-          <a:ext cx="7394575" cy="4473574"/>
+          <a:off x="8953499" y="3354564"/>
+          <a:ext cx="8093780" cy="4881738"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3475,8 +3478,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9525000" y="3771900"/>
-              <a:ext cx="7277100" cy="3378200"/>
+              <a:off x="9530831" y="3758299"/>
+              <a:ext cx="7229306" cy="3437397"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3518,8 +3521,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9533451" y="3773714"/>
-              <a:ext cx="5956136" cy="2766786"/>
+              <a:off x="9588359" y="3760112"/>
+              <a:ext cx="5831287" cy="2782724"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3564,15 +3567,15 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9605980" y="3761956"/>
-              <a:ext cx="6089684" cy="2816140"/>
+              <a:off x="9586785" y="3762143"/>
+              <a:ext cx="6000894" cy="2862300"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3982,13 +3985,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>0.56221198156682028</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>

--- a/result/compare/yolograph/result-etroit.xlsx
+++ b/result/compare/yolograph/result-etroit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/yolograph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\yolograph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BFDDC-5502-7048-9771-2E1B15947DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D8BCE8-5954-4746-81DD-A0131D989870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3419,8 +3420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8953499" y="3354564"/>
-          <a:ext cx="8093780" cy="4881738"/>
+          <a:off x="8247943" y="3056467"/>
+          <a:ext cx="7385050" cy="4456640"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3985,32 +3986,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="8" width="10.90625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
@@ -4032,27 +4036,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>96</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>35</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>30</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>56</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f>C3+F3</f>
         <v>152</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>D3+E3</f>
         <v>65</v>
       </c>
@@ -4077,27 +4081,27 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>99</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>42</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>23</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>53</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G6" si="0">C4+F4</f>
         <v>152</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H6" si="1">D4+E4</f>
         <v>65</v>
       </c>
@@ -4122,27 +4126,27 @@
         <v>0.56221198156682028</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>110</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>35</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>42</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -4167,27 +4171,27 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>106</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>35</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>46</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>

--- a/result/compare/yolograph/result-etroit.xlsx
+++ b/result/compare/yolograph/result-etroit.xlsx
@@ -1,20 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\yolograph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/yolograph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D8BCE8-5954-4746-81DD-A0131D989870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CAB3D9-B2B2-F44E-9C37-011637168BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$J$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$J$6</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$B$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$I$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$I$4</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$I$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Feuil1!$I$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$J$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$J$4</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$J$5</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$J$6</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$B$3</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$B$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Feuil1!$I$3</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Feuil1!$I$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Feuil1!$I$5</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Feuil1!$I$6</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Feuil1!$J$3</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Feuil1!$J$4</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Feuil1!$J$5</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Feuil1!$J$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$I$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$I$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$I$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$I$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$J$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$J$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -459,7 +497,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -526,14 +564,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -593,14 +631,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -660,14 +698,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -723,6 +761,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -787,8 +839,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -902,8 +954,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1112,7 +1170,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1179,14 +1237,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1246,14 +1304,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1313,14 +1371,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2325,7 +2383,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2352,8 +2410,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2433,11 +2491,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2448,11 +2501,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2464,7 +2512,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2484,9 +2532,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2499,10 +2544,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2542,22 +2587,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2662,8 +2708,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2795,19 +2841,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2821,6 +2868,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3398,8 +3456,8 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>627943</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -3420,8 +3478,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8247943" y="3056467"/>
-          <a:ext cx="7385050" cy="4456640"/>
+          <a:off x="8902185" y="3275738"/>
+          <a:ext cx="8042468" cy="4750180"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3479,13 +3537,13 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9530831" y="3758299"/>
-              <a:ext cx="7229306" cy="3437397"/>
+              <a:off x="9610042" y="3774038"/>
+              <a:ext cx="7121858" cy="3392825"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3522,18 +3580,15 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9588359" y="3760112"/>
+              <a:off x="9608803" y="3749298"/>
               <a:ext cx="5831287" cy="2782724"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3568,15 +3623,15 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9586785" y="3762143"/>
+              <a:off x="9605981" y="3762143"/>
               <a:ext cx="6000894" cy="2862300"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3986,16 +4041,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.90625" style="2"/>
+    <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4036,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4081,7 +4136,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4126,7 +4181,7 @@
         <v>0.56221198156682028</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4171,7 +4226,7 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>

--- a/result/compare/yolograph/result-etroit.xlsx
+++ b/result/compare/yolograph/result-etroit.xlsx
@@ -8,51 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/yolograph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CAB3D9-B2B2-F44E-9C37-011637168BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8803B28-C25C-564F-B0F5-7DEEA70A08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$J$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$J$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$B$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$B$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$I$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$I$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$I$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Feuil1!$I$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$B$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$J$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$J$4</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$J$5</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$J$6</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$B$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$B$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Feuil1!$B$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Feuil1!$B$6</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Feuil1!$I$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Feuil1!$I$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$6</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Feuil1!$I$5</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Feuil1!$I$6</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Feuil1!$J$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Feuil1!$J$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Feuil1!$J$5</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Feuil1!$J$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$I$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$I$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$I$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$I$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$J$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$J$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -111,16 +73,16 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>yolov5n</t>
+    <t>Yolov5n</t>
   </si>
   <si>
-    <t>yolov5s</t>
+    <t>Yolov5s</t>
   </si>
   <si>
-    <t>yolov5m</t>
+    <t>Yolov5m</t>
   </si>
   <si>
-    <t>yolov5l</t>
+    <t>Yolov5l</t>
   </si>
 </sst>
 </file>
@@ -483,7 +445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5n</c:v>
+                  <c:v>Yolov5n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -550,7 +512,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5s</c:v>
+                  <c:v>Yolov5s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -617,7 +579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -684,7 +646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5l</c:v>
+                  <c:v>Yolov5l</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1156,7 +1118,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5n</c:v>
+                  <c:v>Yolov5n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1223,7 +1185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5s</c:v>
+                  <c:v>Yolov5s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1290,7 +1252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1357,7 +1319,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5l</c:v>
+                  <c:v>Yolov5l</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3478,8 +3440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8902185" y="3275738"/>
-          <a:ext cx="8042468" cy="4750180"/>
+          <a:off x="8865781" y="3311103"/>
+          <a:ext cx="8006063" cy="4800106"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -4041,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
